--- a/src/main/java/Log/tasks.xlsx
+++ b/src/main/java/Log/tasks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -32,22 +32,31 @@
     <t>true</t>
   </si>
   <si>
-    <t>17</t>
+    <t>19</t>
   </si>
   <si>
-    <t>"2023-06-09T17:39:36.608Z"</t>
+    <t>"2023-06-10T19:42:36.575Z"</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>"2023-06-09T17:43:27.005Z"</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>"2023-06-09T18:13:03.761Z"</t>
+    <t>"2023-06-10T19:43:34.378Z"</t>
+  </si>
+  <si>
+    <t>"2023-06-10T19:53:08.505Z"</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>"2023-06-10T19:57:51.980Z"</t>
   </si>
 </sst>
 </file>
@@ -92,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,26 +139,42 @@
       <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
